--- a/output_data/charts/1600000US3950862.xlsx
+++ b/output_data/charts/1600000US3950862.xlsx
@@ -131,17 +131,7 @@
       <c:layout/>
     </c:title>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14000000000000001"/>
-          <c:y val="0.13"/>
-          <c:w val="0.80000000000000004"/>
-          <c:h val="0.67000000000000004"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -179,101 +169,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>36708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37073</c:v>
+                  <c:v>38534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37438</c:v>
+                  <c:v>40360</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37803</c:v>
+                  <c:v>42186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38169</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38534</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38899</c:v>
+                  <c:v>47665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39264</c:v>
+                  <c:v>49491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39630</c:v>
+                  <c:v>51318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39995</c:v>
+                  <c:v>53144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40360</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40725</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41091</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42552</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43647</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45108</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>47665</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49491</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>51318</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53144</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>54970</c:v>
                 </c:pt>
               </c:numCache>
@@ -281,84 +211,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1290</c:v>
+                  <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1284</c:v>
+                  <c:v>1291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1278</c:v>
+                  <c:v>1678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1265</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1264</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1269</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1272</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1291</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1449</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1528</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1602</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1678</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1753</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1896</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1944</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,101 +269,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>36708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37073</c:v>
+                  <c:v>38534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37438</c:v>
+                  <c:v>40360</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37803</c:v>
+                  <c:v>42186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38169</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38534</c:v>
+                  <c:v>45839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38899</c:v>
+                  <c:v>47665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39264</c:v>
+                  <c:v>49491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39630</c:v>
+                  <c:v>51318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39995</c:v>
+                  <c:v>53144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40360</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40725</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41091</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42552</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43282</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43647</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45108</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45292</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45839</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>47665</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49491</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>51318</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53144</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>54970</c:v>
                 </c:pt>
               </c:numCache>
@@ -501,26 +311,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$32</c:f>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="25">
+                <c:ptCount val="11"/>
+                <c:pt idx="5">
                   <c:v>2061</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="6">
                   <c:v>2061</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="7">
                   <c:v>2061</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="8">
                   <c:v>2061</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="9">
                   <c:v>2061</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="10">
                   <c:v>2061</c:v>
                 </c:pt>
               </c:numCache>
@@ -535,6 +345,8 @@
         <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="54970.0"/>
+          <c:min val="36708.0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy" sourceLinked="0"/>
@@ -932,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,241 +776,81 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>37073</v>
+        <v>38534</v>
       </c>
       <c r="B3" s="2">
-        <v>1290</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>37438</v>
+        <v>40360</v>
       </c>
       <c r="B4" s="2">
-        <v>1284</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>37803</v>
+        <v>42186</v>
       </c>
       <c r="B5" s="2">
-        <v>1278</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>38169</v>
+        <v>44013</v>
       </c>
       <c r="B6" s="2">
-        <v>1271</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4">
-        <v>38534</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1265</v>
+        <v>45839</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2061</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4">
-        <v>38899</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1264</v>
+        <v>47665</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2061</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
-        <v>39264</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1265</v>
+        <v>49491</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2061</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4">
-        <v>39630</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1269</v>
+        <v>51318</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2061</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
-        <v>39995</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1272</v>
+        <v>53144</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2061</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>40360</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
-        <v>40725</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
-        <v>41091</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
-        <v>41456</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
-        <v>41821</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
-        <v>42186</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
-        <v>42552</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
-        <v>42917</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
-        <v>43282</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4">
-        <v>43647</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
-        <v>44013</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
-        <v>44378</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
-        <v>45108</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
-        <v>45292</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
-        <v>45839</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4">
-        <v>47665</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4">
-        <v>49491</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4">
-        <v>51318</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4">
-        <v>53144</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4">
         <v>54970</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C12" s="2">
         <v>2061</v>
       </c>
     </row>
